--- a/pred_ohlcv/54_21/2020-01-21 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 SOC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>674292.0174615812</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -704,7 +704,7 @@
         <v>680284.5907304352</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>742330.3714304352</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>689557.6938304352</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>406267.3221961732</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>406267.3221961732</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>406267.3221961732</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>406267.3221961732</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>392119.4636961733</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>454089.1500961733</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>411789.3269961733</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>439518.9008961733</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>451960.1097493509</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>433243.4804493509</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>447047.1701493509</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>424808.0924493509</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>432505.3604493508</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>438954.2307493509</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>431736.6928493509</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>425379.9363493508</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>435609.7888493508</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>423720.0160493508</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>432084.9121493509</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>425159.2557493509</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>433346.1024493509</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>508599.1320493509</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>499938.3029493509</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>530774.8898493509</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>509203.1321493509</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>356788.5065493509</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>371212.7304894258</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>346624.5465894258</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>323688.797248216</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>333301.5930894258</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-96167.72911057418</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-68422.45651057418</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-61168.61761057418</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-67133.59511057417</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-24931.50111057417</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-31659.24651057417</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>66853.45762736312</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>66853.45762736312</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>58847.02122736313</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>64197.70369067783</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>65908.35439067784</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-536045.0266798468</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-648152.0859798469</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-667511.6373798469</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-657023.5908798468</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-670625.7512798469</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-662284.2917798469</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-671065.2920798468</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-671065.2920798468</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-661904.7076798468</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-654668.9344798467</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-654668.9344798467</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-666301.5516798467</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-757824.2049491092</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-810953.1762491092</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1188188.799149109</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1195277.021949109</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1188552.686949109</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1188552.686949109</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1213141.81354911</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1197802.480745406</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1188623.452145406</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1178337.022845406</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1165190.004045406</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1165190.004045406</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1182095.144245406</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1175177.258645406</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1182042.747345406</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1167016.022845406</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1180742.154645406</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1145942.485545406</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1172167.007045406</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1165749.504045406</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1143178.148545406</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1197048.913545406</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1187248.349745406</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1187248.349745406</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1195767.627845406</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1213610.728545406</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1287264.167145406</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1300882.886545406</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1415754.400645406</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1386019.957445406</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1436447.125645406</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1531116.562345406</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1592692.466345406</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1466704.467545406</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1514470.440645406</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1535437.163245406</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1513740.110345406</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1549511.314945406</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1511302.752645406</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1532400.218145406</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1532400.218145406</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1513756.867845406</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1541189.300145406</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1525800.036145406</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1547708.085445406</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1547708.085445406</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1564468.763245406</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1546010.670745406</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1368216.208245406</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1376098.648945406</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1376098.648945406</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1355525.232645406</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1435015.620045406</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1300024.329845406</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1343303.068745406</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1343303.068745406</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1195961.112462484</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>4291201.982119922</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>4104187.524619922</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>4255786.749519922</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>4319864.279819922</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4089033.088919922</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>4805780.940019921</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>5493126.889176651</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4750689.887203655</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>5803449.150583079</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>7391266.353689355</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>8128758.011289354</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3921962.006518309</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3375683.183818309</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3488160.086718309</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3721529.308718309</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3812277.935018309</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3636446.014618309</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>4271852.201118309</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>4223968.118918309</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4283433.630018309</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4338003.270773494</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>6228663.902067064</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>431029856.8272423</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>430626770.5895423</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>430626770.5895423</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>429582409.3697664</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>429220704.7252664</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>428065218.5330026</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>430422783.1532764</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>430107524.9095764</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>429979877.4814764</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>429991479.2889764</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>429945298.1041763</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>429529817.7518764</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>429724054.9630764</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>429708948.5570763</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>429767722.2054763</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>429754468.1915764</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>429691756.2861764</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>429691756.2861764</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>431774978.2111932</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>431732961.8995932</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>431241253.1865867</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>426954295.3307394</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>430988143.8198023</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>432104193.977515</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>432552851.8941424</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>434259615.9791149</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>434463263.0333149</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>437221187.6355149</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>441399006.5584149</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>443665599.1791812</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>447033912.9653005</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>444989607.1821856</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>444173971.3713856</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>443548428.6676856</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>443274403.2933744</v>
       </c>
       <c r="H1201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>444541244.119141</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>443974967.4703078</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>442621186.7295297</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>442866715.2302297</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>443575283.7558297</v>
       </c>
       <c r="H1206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>442575982.6740297</v>
       </c>
       <c r="H1207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>443004753.6145297</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>443210199.5588124</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>442015132.1814124</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>441446953.2308394</v>
       </c>
       <c r="H1211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>441660950.6792892</v>
       </c>
       <c r="H1212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>441560378.5917892</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>440925860.4865893</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>439672811.2798892</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>439193911.2758892</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>439316732.8366892</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>438248702.2010021</v>
       </c>
       <c r="H1223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>438425319.356802</v>
       </c>
       <c r="H1224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>438668757.1834037</v>
       </c>
       <c r="H1225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>438228751.0830053</v>
       </c>
       <c r="H1226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>438685173.101737</v>
       </c>
       <c r="H1227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>438685173.101737</v>
       </c>
       <c r="H1228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>438537561.2258371</v>
       </c>
       <c r="H1229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>437714888.1663371</v>
       </c>
       <c r="H1230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>438134563.5811371</v>
       </c>
       <c r="H1231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>438329386.9964371</v>
       </c>
       <c r="H1232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>437993124.6224371</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>438264940.346137</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>437914126.3340512</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>437707796.8666512</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 SOC ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>406267.3221961732</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>406267.3221961732</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>392119.4636961733</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>454089.1500961733</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>411789.3269961733</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>439518.9008961733</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>451960.1097493509</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>433243.4804493509</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>447047.1701493509</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>424808.0924493509</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>432505.3604493508</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>438954.2307493509</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>431736.6928493509</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>425379.9363493508</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>435609.7888493508</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>423720.0160493508</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>432084.9121493509</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>425159.2557493509</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>433346.1024493509</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>508599.1320493509</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>499938.3029493509</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>530774.8898493509</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>509203.1321493509</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>356788.5065493509</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>371212.7304894258</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>346624.5465894258</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>323688.797248216</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>333301.5930894258</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-96167.72911057418</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-68422.45651057418</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-61168.61761057418</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-67133.59511057417</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-24931.50111057417</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-31659.24651057417</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-31659.24651057417</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-31659.24651057417</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4622.300310574174</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-35133.42911057417</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-16631.73251057417</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-16631.73251057417</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-55539.51491057417</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-55539.51491057417</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-71183.10091057417</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-71183.10091057417</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-60258.69261057417</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-66834.49851057418</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-36472.91202889335</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-55657.07114522952</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-30470.03254522952</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-30470.03254522952</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-10265.74924522952</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>6438.938254770477</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2145.992845229523</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20038.06724522953</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-30995.49074522953</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-23035.25864522953</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-17030.84724522952</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-27517.83014522953</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-21322.55654522953</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>111673.4738547705</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>92263.62605477046</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>92263.62605477046</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>83020.95785477046</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>101520.9389547705</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>94465.70015477046</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>85513.30385477046</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>93460.65325477047</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>82921.52455477047</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>89986.44805477047</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>78785.51445477047</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>60458.60585477047</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>63648.44005477047</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>84395.21205477047</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-8084.470745229526</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-15380.93164522953</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-10310.77514522953</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2244.200045229527</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-9465.995545229527</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2839.064238103803</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3965.344538103803</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3965.344538103803</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>11852.5760381038</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-7345.053861896198</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>8864.908338103802</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>15252.0701381038</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>59235.8285381038</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>43200.05131658246</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>50043.13461658246</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>43412.44071658246</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>57119.62851658246</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>56391.93922736313</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>66853.45762736312</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>66853.45762736312</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>58847.02122736313</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>53089.41622736312</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>64197.70369067783</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>58244.63559067783</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>65908.35439067784</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>85730.01512736312</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>106196.9261381438</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-661904.7076798468</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-654668.9344798467</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1188552.686949109</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1188552.686949109</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1213141.81354911</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1197802.480745406</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1188623.452145406</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1178337.022845406</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1165190.004045406</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1165190.004045406</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1182095.144245406</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1175177.258645406</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1182042.747345406</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1167016.022845406</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1145942.485545406</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1165749.504045406</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1143178.148545406</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1197048.913545406</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1247950.605645406</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1275890.628645406</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1436447.125645406</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1531116.562345406</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1592692.466345406</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1466704.467545406</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1514470.440645406</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1535437.163245406</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1513740.110345406</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1549511.314945406</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1511302.752645406</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1532400.218145406</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1532400.218145406</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1513756.867845406</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1541189.300145406</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1525800.036145406</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1547708.085445406</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1547708.085445406</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1564468.763245406</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1546010.670745406</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1368216.208245406</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1376098.648945406</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1355525.232645406</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1376081.860845406</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1300024.329845406</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1195961.112462484</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>4291201.982119922</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>4104187.524619922</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>4255786.749519922</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>4319864.279819922</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4089033.088919922</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>4805780.940019921</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>5493126.889176651</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4750689.887203655</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>5803449.150583079</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>7391266.353689355</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>8128758.011289354</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3921962.006518309</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3375683.183818309</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3488160.086718309</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3721529.308718309</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3812277.935018309</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3636446.014618309</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>4271852.201118309</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>4223968.118918309</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4283433.630018309</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4338003.270773494</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>6228663.902067064</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>431029856.8272423</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>430626770.5895423</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>430626770.5895423</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>429582409.3697664</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>429220704.7252664</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>428065218.5330026</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>430422783.1532764</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>430107524.9095764</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>429979877.4814764</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>429991479.2889764</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>429945298.1041763</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>429529817.7518764</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>429724054.9630764</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>429708948.5570763</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>429767722.2054763</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>429754468.1915764</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>429691756.2861764</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>429691756.2861764</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>431774978.2111932</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>431732961.8995932</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>431241253.1865867</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>426954295.3307394</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>430988143.8198023</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>432104193.977515</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>432552851.8941424</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>434259615.9791149</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>434463263.0333149</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>437221187.6355149</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>441399006.5584149</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>443665599.1791812</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>447033912.9653005</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>444989607.1821856</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>444173971.3713856</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>443970344.4914524</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>444541244.119141</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>443974967.4703078</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>442621186.7295297</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>442866715.2302297</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>443575283.7558297</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>442575982.6740297</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>443004753.6145297</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>443210199.5588124</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>442015132.1814124</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>441446953.2308394</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>441660950.6792892</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>441560378.5917892</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>440925860.4865893</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>439672811.2798892</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>439193911.2758892</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>439316732.8366892</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>438248702.2010021</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>438425319.356802</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>438668757.1834037</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>438228751.0830053</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>438685173.101737</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>438685173.101737</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>438537561.2258371</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>437714888.1663371</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>438134563.5811371</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
